--- a/Ekonometrika Terapan/Dataset/Inflation Dataset.xlsx
+++ b/Ekonometrika Terapan/Dataset/Inflation Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KULIAH\Semester 5\Ekonometrika Terapan\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17678E0B-911B-4CA8-B76C-A854631DCBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B330B-6D77-46B9-8587-6A59F02EB171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,16 +516,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -533,16 +534,16 @@
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -553,16 +554,16 @@
         <v>34</v>
       </c>
       <c r="B2">
+        <v>120.9113416666667</v>
+      </c>
+      <c r="C2">
         <v>9.4190582772414597</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.8659999999999997</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>19.3125</v>
-      </c>
-      <c r="E2">
-        <v>120.9113416666667</v>
       </c>
       <c r="F2">
         <v>1556.8066635196201</v>
@@ -573,16 +574,16 @@
         <v>35</v>
       </c>
       <c r="B3">
+        <v>117.3214833333333</v>
+      </c>
+      <c r="C3">
         <v>7.5235171702274801</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8.2420000000000009</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>15.987500000000001</v>
-      </c>
-      <c r="E3">
-        <v>117.3214833333333</v>
       </c>
       <c r="F3">
         <v>1629.84797824665</v>
@@ -593,16 +594,16 @@
         <v>36</v>
       </c>
       <c r="B4">
+        <v>121.661275</v>
+      </c>
+      <c r="C4">
         <v>9.6718933818011799</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8.5649999999999995</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10.6175</v>
-      </c>
-      <c r="E4">
-        <v>121.661275</v>
       </c>
       <c r="F4">
         <v>1706.9523645880399</v>
@@ -613,16 +614,16 @@
         <v>37</v>
       </c>
       <c r="B5">
+        <v>120.98270833333331</v>
+      </c>
+      <c r="C5">
         <v>8.5320052541884692</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>13.108000000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.294166666666669</v>
-      </c>
-      <c r="E5">
-        <v>120.98270833333331</v>
       </c>
       <c r="F5">
         <v>1805.60388533425</v>
@@ -633,16 +634,16 @@
         <v>38</v>
       </c>
       <c r="B6">
+        <v>117.086225</v>
+      </c>
+      <c r="C6">
         <v>9.4203232164461497</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14.013</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14.11166666666667</v>
-      </c>
-      <c r="E6">
-        <v>117.086225</v>
       </c>
       <c r="F6">
         <v>1922.3521180474499</v>
@@ -653,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="B7">
+        <v>125.827775</v>
+      </c>
+      <c r="C7">
         <v>7.9732808561141697</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14.951000000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13.819166666666669</v>
-      </c>
-      <c r="E7">
-        <v>125.827775</v>
       </c>
       <c r="F7">
         <v>2039.36298877492</v>
@@ -673,16 +674,16 @@
         <v>2</v>
       </c>
       <c r="B8">
+        <v>119.3380466666667</v>
+      </c>
+      <c r="C8">
         <v>6.2261416338758799</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>14.958</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>14.4975</v>
-      </c>
-      <c r="E8">
-        <v>119.3380466666667</v>
       </c>
       <c r="F8">
         <v>2101.2541494591601</v>
@@ -693,16 +694,16 @@
         <v>3</v>
       </c>
       <c r="B9">
+        <v>57.422148333333332</v>
+      </c>
+      <c r="C9">
         <v>58.451044472394699</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16.757000000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>49.324166666666663</v>
-      </c>
-      <c r="E9">
-        <v>57.422148333333332</v>
       </c>
       <c r="F9">
         <v>1797.0839218158501</v>
@@ -713,16 +714,16 @@
         <v>4</v>
       </c>
       <c r="B10">
+        <v>84.404349999999994</v>
+      </c>
+      <c r="C10">
         <v>20.477831112640001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>19.295999999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>23.142499999999998</v>
-      </c>
-      <c r="E10">
-        <v>84.404349999999994</v>
       </c>
       <c r="F10">
         <v>1784.3335946990001</v>
@@ -733,16 +734,16 @@
         <v>5</v>
       </c>
       <c r="B11">
+        <v>82.134293333333332</v>
+      </c>
+      <c r="C11">
         <v>3.6886191595835198</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>19.177</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12.54666666666667</v>
-      </c>
-      <c r="E11">
-        <v>82.134293333333332</v>
       </c>
       <c r="F11">
         <v>1845.2278007270299</v>
@@ -753,16 +754,16 @@
         <v>6</v>
       </c>
       <c r="B12">
+        <v>78.920444166666655</v>
+      </c>
+      <c r="C12">
         <v>11.500114879176801</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>19.065000000000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>16.615833333333331</v>
-      </c>
-      <c r="E12">
-        <v>78.920444166666655</v>
       </c>
       <c r="F12">
         <v>1885.67975137695</v>
@@ -773,16 +774,16 @@
         <v>7</v>
       </c>
       <c r="B13">
+        <v>95.795726666666638</v>
+      </c>
+      <c r="C13">
         <v>11.9001175663778</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21.475999999999999</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>14.9475</v>
-      </c>
-      <c r="E13">
-        <v>95.795726666666638</v>
       </c>
       <c r="F13">
         <v>1943.6449279063399</v>
@@ -793,16 +794,16 @@
         <v>8</v>
       </c>
       <c r="B14">
+        <v>103.119</v>
+      </c>
+      <c r="C14">
         <v>6.7573171936285297</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>21.486000000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.9425000000000008</v>
-      </c>
-      <c r="E14">
-        <v>103.119</v>
       </c>
       <c r="F14">
         <v>2009.4897839539899</v>
@@ -813,16 +814,16 @@
         <v>9</v>
       </c>
       <c r="B15">
+        <v>98.467508333333313</v>
+      </c>
+      <c r="C15">
         <v>6.0640598852652099</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>23.678000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>7.4450000000000003</v>
-      </c>
-      <c r="E15">
-        <v>98.467508333333313</v>
       </c>
       <c r="F15">
         <v>2083.8825089787001</v>
@@ -833,16 +834,16 @@
         <v>10</v>
       </c>
       <c r="B16">
+        <v>96.98452416666666</v>
+      </c>
+      <c r="C16">
         <v>10.453198419386499</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>26.381</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>9.1199999999999992</v>
-      </c>
-      <c r="E16">
-        <v>96.98452416666666</v>
       </c>
       <c r="F16">
         <v>2174.9152214896599</v>
@@ -853,16 +854,16 @@
         <v>11</v>
       </c>
       <c r="B17">
+        <v>111.8630083333333</v>
+      </c>
+      <c r="C17">
         <v>13.108672098529601</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>24.7</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>11.83333333333333</v>
-      </c>
-      <c r="E17">
-        <v>111.8630083333333</v>
       </c>
       <c r="F17">
         <v>2264.93573330974</v>
@@ -873,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B18">
+        <v>110.8323333333333</v>
+      </c>
+      <c r="C18">
         <v>6.4065628132570103</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>22.931000000000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>8.6041666666666661</v>
-      </c>
-      <c r="E18">
-        <v>110.8323333333333</v>
       </c>
       <c r="F18">
         <v>2377.2549929708098</v>
@@ -893,16 +894,16 @@
         <v>13</v>
       </c>
       <c r="B19">
+        <v>105.71186666666669</v>
+      </c>
+      <c r="C19">
         <v>10.226664547314799</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>19.702999999999999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>8.6666666666666661</v>
-      </c>
-      <c r="E19">
-        <v>105.71186666666669</v>
       </c>
       <c r="F19">
         <v>2487.61129660703</v>
@@ -913,16 +914,16 @@
         <v>14</v>
       </c>
       <c r="B20">
+        <v>104.8276575</v>
+      </c>
+      <c r="C20">
         <v>4.3864155501473103</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>19.175999999999998</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7.145833333333333</v>
-      </c>
-      <c r="E20">
-        <v>104.8276575</v>
       </c>
       <c r="F20">
         <v>2569.87421261278</v>
@@ -933,16 +934,16 @@
         <v>15</v>
       </c>
       <c r="B21">
+        <v>116.404725</v>
+      </c>
+      <c r="C21">
         <v>5.1342040076792799</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>17.754999999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6.5</v>
-      </c>
-      <c r="E21">
-        <v>116.404725</v>
       </c>
       <c r="F21">
         <v>2695.8681700721399</v>
@@ -953,16 +954,16 @@
         <v>16</v>
       </c>
       <c r="B22">
+        <v>115.3949833333333</v>
+      </c>
+      <c r="C22">
         <v>5.3560477898215</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>18.474</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6.583333333333333</v>
-      </c>
-      <c r="E22">
-        <v>115.3949833333333</v>
       </c>
       <c r="F22">
         <v>2826.4804407234801</v>
@@ -973,16 +974,16 @@
         <v>17</v>
       </c>
       <c r="B23">
+        <v>110.3283083333333</v>
+      </c>
+      <c r="C23">
         <v>4.2794999964197498</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>15.744</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5.770833333333333</v>
-      </c>
-      <c r="E23">
-        <v>110.3283083333333</v>
       </c>
       <c r="F23">
         <v>2959.5144781668</v>
@@ -993,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="B24">
+        <v>105.29295083333329</v>
+      </c>
+      <c r="C24">
         <v>6.4125133015641804</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>16.047000000000001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6.4791666666666661</v>
-      </c>
-      <c r="E24">
-        <v>105.29295083333329</v>
       </c>
       <c r="F24">
         <v>3086.3231169522401</v>
@@ -1013,16 +1014,16 @@
         <v>19</v>
       </c>
       <c r="B25">
+        <v>98.541334166666658</v>
+      </c>
+      <c r="C25">
         <v>6.39492540819922</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>16.045999999999999</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>7.520833333333333</v>
-      </c>
-      <c r="E25">
-        <v>98.541334166666658</v>
       </c>
       <c r="F25">
         <v>3203.4842870207699</v>
@@ -1033,16 +1034,16 @@
         <v>20</v>
       </c>
       <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
         <v>6.3631211311561202</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>17.282</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>7.520833333333333</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
       </c>
       <c r="F26">
         <v>3322.5816789544401</v>
@@ -1053,16 +1054,16 @@
         <v>21</v>
       </c>
       <c r="B27">
+        <v>104.8913666666667</v>
+      </c>
+      <c r="C27">
         <v>3.5258051568792999</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16.039000000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6</v>
-      </c>
-      <c r="E27">
-        <v>104.8913666666667</v>
       </c>
       <c r="F27">
         <v>3453.04943030511</v>
@@ -1073,16 +1074,16 @@
         <v>22</v>
       </c>
       <c r="B28">
+        <v>106.52925</v>
+      </c>
+      <c r="C28">
         <v>3.8087980695315702</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>14.583</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.5625</v>
-      </c>
-      <c r="E28">
-        <v>106.52925</v>
       </c>
       <c r="F28">
         <v>3591.7800284592599</v>
@@ -1093,16 +1094,16 @@
         <v>23</v>
       </c>
       <c r="B29">
+        <v>100.04296916666669</v>
+      </c>
+      <c r="C29">
         <v>3.1983464156240999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>16.393999999999998</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.1041666666666661</v>
-      </c>
-      <c r="E29">
-        <v>100.04296916666669</v>
       </c>
       <c r="F29">
         <v>3741.30526682049</v>
@@ -1113,16 +1114,16 @@
         <v>24</v>
       </c>
       <c r="B30">
+        <v>104.6661083333333</v>
+      </c>
+      <c r="C30">
         <v>3.0305866496948699</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>13.592000000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5.625</v>
-      </c>
-      <c r="E30">
-        <v>104.6661083333333</v>
       </c>
       <c r="F30">
         <v>3892.42166187369</v>
@@ -1133,16 +1134,16 @@
         <v>25</v>
       </c>
       <c r="B31">
+        <v>102.9186441666667</v>
+      </c>
+      <c r="C31">
         <v>1.9209680056684999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>14.782999999999999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4.25</v>
-      </c>
-      <c r="E31">
-        <v>102.9186441666667</v>
       </c>
       <c r="F31">
         <v>3780.1216344158502</v>
@@ -1153,16 +1154,16 @@
         <v>26</v>
       </c>
       <c r="B32">
+        <v>101.0655641666667</v>
+      </c>
+      <c r="C32">
         <v>1.5601299052567299</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>13.81</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3.520833333333333</v>
-      </c>
-      <c r="E32">
-        <v>101.0655641666667</v>
       </c>
       <c r="F32">
         <v>3892.9559999059902</v>
@@ -1173,16 +1174,16 @@
         <v>27</v>
       </c>
       <c r="B33">
+        <v>102.9409916666667</v>
+      </c>
+      <c r="C33">
         <v>4.2094638340216504</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>14.053000000000001</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>4</v>
-      </c>
-      <c r="E33">
-        <v>102.9409916666667</v>
       </c>
       <c r="F33">
         <v>4073.55834962073</v>
@@ -1193,16 +1194,16 @@
         <v>28</v>
       </c>
       <c r="B34">
+        <v>103.5953433333333</v>
+      </c>
+      <c r="C34">
         <v>3.6701314237700702</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>13.936</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>5.8125</v>
-      </c>
-      <c r="E34">
-        <v>103.5953433333333</v>
       </c>
       <c r="F34">
         <v>4247.8531552007298</v>
